--- a/data/Экзамен 2020.xlsx
+++ b/data/Экзамен 2020.xlsx
@@ -380,12 +380,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -393,13 +393,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,7 +410,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -433,6 +432,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -442,7 +479,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,11 +493,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,8 +509,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,53 +526,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,13 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,25 +579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,73 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,25 +633,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,6 +746,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -764,11 +791,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,26 +821,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,203 +846,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1342,15 +1339,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V98" sqref="V98"/>
+      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1429,7 +1426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" hidden="1" spans="1:22">
       <c r="A2" s="1">
         <v>135496443</v>
       </c>
@@ -1475,14 +1472,25 @@
       <c r="O2" s="2">
         <v>53.964814815</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="P2" s="5">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="2">
-        <f>O2+R2/5*25+S2/5*25</f>
-        <v>53.964814815</v>
+        <f t="shared" ref="U2:U65" si="0">O2+R2/5*25+S2/5*25</f>
+        <v>103.964814815</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1537,11 +1545,11 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="4">
-        <f>O3+R3/5*25+S3/5*25</f>
+        <f t="shared" si="0"/>
         <v>17.633333334</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" hidden="1" spans="1:22">
       <c r="A4" s="1">
         <v>135505048</v>
       </c>
@@ -1587,17 +1595,28 @@
       <c r="O4" s="2">
         <v>56.262962963</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="P4" s="5">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="2">
-        <f>O4+R4/5*25+S4/5*25</f>
-        <v>56.262962963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <f t="shared" si="0"/>
+        <v>106.262962963</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:22">
       <c r="A5" s="1">
         <v>135403557</v>
       </c>
@@ -1643,17 +1662,28 @@
       <c r="O5" s="2">
         <v>54.781481482</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="P5" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>56</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>5</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="2">
-        <f>O5+R5/5*25+S5/5*25</f>
-        <v>54.781481482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <f t="shared" si="0"/>
+        <v>104.781481482</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:22">
       <c r="A6" s="3">
         <v>135447191</v>
       </c>
@@ -1699,14 +1729,25 @@
       <c r="O6" s="4">
         <v>44.187037037</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="4">
+      <c r="P6" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="2">
         <f>O6+R6/5*25+S6/5*25</f>
-        <v>44.187037037</v>
+        <v>84.187037037</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1761,11 +1802,11 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="2">
-        <f>O7+R7/5*25+S7/5*25</f>
+        <f t="shared" si="0"/>
         <v>51.027777778</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" hidden="1" spans="1:22">
       <c r="A8" s="3">
         <v>135491554</v>
       </c>
@@ -1811,14 +1852,25 @@
       <c r="O8" s="4">
         <v>40.161111112</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="P8" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>52</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="4">
-        <f>O8+R8/5*25+S8/5*25</f>
-        <v>40.161111112</v>
+        <f t="shared" si="0"/>
+        <v>60.161111112</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1873,11 +1925,11 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="4">
-        <f>O9+R9/5*25+S9/5*25</f>
+        <f t="shared" si="0"/>
         <v>49.859259258</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" hidden="1" spans="1:22">
       <c r="A10" s="1">
         <v>135468336</v>
       </c>
@@ -1923,14 +1975,25 @@
       <c r="O10" s="2">
         <v>52.024074074</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="P10" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="2">
-        <f>O10+R10/5*25+S10/5*25</f>
-        <v>52.024074074</v>
+        <f t="shared" si="0"/>
+        <v>102.024074074</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1985,11 +2048,11 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="2">
-        <f>O11+R11/5*25+S11/5*25</f>
+        <f t="shared" si="0"/>
         <v>57.32962963</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" hidden="1" spans="1:22">
       <c r="A12" s="1">
         <v>58522742</v>
       </c>
@@ -2049,14 +2112,14 @@
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="2">
-        <f>O12+R12/5*25+S12/5*25</f>
+        <f t="shared" si="0"/>
         <v>101.492592592</v>
       </c>
       <c r="V12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" hidden="1" spans="1:22">
       <c r="A13" s="3">
         <v>135560433</v>
       </c>
@@ -2102,17 +2165,28 @@
       <c r="O13" s="4">
         <v>45.427777778</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="7"/>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>35</v>
+      </c>
+      <c r="R13" s="3">
+        <v>4</v>
+      </c>
+      <c r="S13" s="3">
+        <v>5</v>
+      </c>
+      <c r="T13" s="3"/>
       <c r="U13" s="4">
-        <f>O13+R13/5*25+S13/5*25</f>
-        <v>45.427777778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>90.427777778</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:22">
       <c r="A14" s="1">
         <v>135474875</v>
       </c>
@@ -2172,7 +2246,7 @@
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="2">
-        <f>O14+R14/5*25+S14/5*25</f>
+        <f t="shared" si="0"/>
         <v>102.646378767</v>
       </c>
       <c r="V14">
@@ -2231,11 +2305,11 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="4">
-        <f>O15+R15/5*25+S15/5*25</f>
+        <f t="shared" si="0"/>
         <v>45.846296296</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" hidden="1" spans="1:22">
       <c r="A16" s="1">
         <v>137342742</v>
       </c>
@@ -2281,14 +2355,25 @@
       <c r="O16" s="2">
         <v>59.011111111</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="P16" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>35</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
       <c r="T16" s="1"/>
       <c r="U16" s="2">
-        <f>O16+R16/5*25+S16/5*25</f>
-        <v>59.011111111</v>
+        <f t="shared" si="0"/>
+        <v>94.011111111</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2343,11 +2428,11 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="4">
-        <f>O17+R17/5*25+S17/5*25</f>
+        <f t="shared" si="0"/>
         <v>47.818518519</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" hidden="1" spans="1:22">
       <c r="A18" s="1">
         <v>137366991</v>
       </c>
@@ -2407,14 +2492,14 @@
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="2">
-        <f>O18+R18/5*25+S18/5*25</f>
+        <f t="shared" si="0"/>
         <v>95.559259259</v>
       </c>
       <c r="V18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" hidden="1" spans="1:22">
       <c r="A19" s="1">
         <v>135465278</v>
       </c>
@@ -2460,14 +2545,25 @@
       <c r="O19" s="2">
         <v>60.672222223</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="P19" s="5">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>42</v>
+      </c>
+      <c r="R19" s="1">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1">
+        <v>5</v>
+      </c>
       <c r="T19" s="1"/>
       <c r="U19" s="2">
-        <f>O19+R19/5*25+S19/5*25</f>
-        <v>60.672222223</v>
+        <f t="shared" si="0"/>
+        <v>110.672222223</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2522,11 +2618,11 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="4">
-        <f>O20+R20/5*25+S20/5*25</f>
+        <f t="shared" si="0"/>
         <v>43.890740741</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" hidden="1" spans="1:22">
       <c r="A21" s="1">
         <v>135569834</v>
       </c>
@@ -2572,17 +2668,28 @@
       <c r="O21" s="2">
         <v>56.440740741</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="P21" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>45</v>
+      </c>
+      <c r="R21" s="1">
+        <v>5</v>
+      </c>
+      <c r="S21" s="1">
+        <v>5</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="2">
-        <f>O21+R21/5*25+S21/5*25</f>
-        <v>56.440740741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <f t="shared" si="0"/>
+        <v>106.440740741</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:22">
       <c r="A22" s="1">
         <v>121106547</v>
       </c>
@@ -2628,17 +2735,28 @@
       <c r="O22" s="2">
         <v>57.022222223</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="P22" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>8</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1">
+        <v>5</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="2">
-        <f>O22+R22/5*25+S22/5*25</f>
-        <v>57.022222223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>107.022222223</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:22">
       <c r="A23" s="1">
         <v>135560396</v>
       </c>
@@ -2698,14 +2816,14 @@
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="2">
-        <f>O23+R23/5*25+S23/5*25</f>
+        <f t="shared" si="0"/>
         <v>101.651851852</v>
       </c>
       <c r="V23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" hidden="1" spans="1:22">
       <c r="A24" s="1">
         <v>135868620</v>
       </c>
@@ -2765,14 +2883,14 @@
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="2">
-        <f>O24+R24/5*25+S24/5*25</f>
+        <f t="shared" si="0"/>
         <v>108.355555556</v>
       </c>
       <c r="V24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" hidden="1" spans="1:22">
       <c r="A25" s="1">
         <v>121710203</v>
       </c>
@@ -2818,14 +2936,25 @@
       <c r="O25" s="2">
         <v>57.918518519</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="P25" s="5">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>58</v>
+      </c>
+      <c r="R25" s="1">
+        <v>5</v>
+      </c>
+      <c r="S25" s="1">
+        <v>5</v>
+      </c>
       <c r="T25" s="1"/>
       <c r="U25" s="2">
-        <f>O25+R25/5*25+S25/5*25</f>
-        <v>57.918518519</v>
+        <f t="shared" si="0"/>
+        <v>107.918518519</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2878,13 +3007,13 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="7"/>
+      <c r="T26" s="3"/>
       <c r="U26" s="4">
-        <f>O26+R26/5*25+S26/5*25</f>
+        <f t="shared" si="0"/>
         <v>31.220370371</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" hidden="1" spans="1:22">
       <c r="A27" s="1">
         <v>135481233</v>
       </c>
@@ -2930,17 +3059,28 @@
       <c r="O27" s="2">
         <v>55.374074074</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="P27" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>21</v>
+      </c>
+      <c r="R27" s="1">
+        <v>4</v>
+      </c>
+      <c r="S27" s="1">
+        <v>5</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="2">
-        <f>O27+R27/5*25+S27/5*25</f>
-        <v>55.374074074</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <f t="shared" si="0"/>
+        <v>100.374074074</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:22">
       <c r="A28" s="1">
         <v>135499542</v>
       </c>
@@ -2986,14 +3126,25 @@
       <c r="O28" s="2">
         <v>59.161111111</v>
       </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="P28" s="5">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>11</v>
+      </c>
+      <c r="R28" s="1">
+        <v>4</v>
+      </c>
+      <c r="S28" s="1">
+        <v>5</v>
+      </c>
       <c r="T28" s="1"/>
       <c r="U28" s="2">
-        <f>O28+R28/5*25+S28/5*25</f>
-        <v>59.161111111</v>
+        <f t="shared" si="0"/>
+        <v>104.161111111</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3048,7 +3199,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="2">
-        <f>O29+R29/5*25+S29/5*25</f>
+        <f t="shared" si="0"/>
         <v>58.174074074</v>
       </c>
     </row>
@@ -3102,13 +3253,13 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="7"/>
+      <c r="T30" s="3"/>
       <c r="U30" s="4">
-        <f>O30+R30/5*25+S30/5*25</f>
+        <f t="shared" si="0"/>
         <v>46.651851852</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" hidden="1" spans="1:22">
       <c r="A31" s="1">
         <v>59188161</v>
       </c>
@@ -3154,14 +3305,25 @@
       <c r="O31" s="2">
         <v>54.253703704</v>
       </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="P31" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>40</v>
+      </c>
+      <c r="R31" s="1">
+        <v>5</v>
+      </c>
+      <c r="S31" s="1">
+        <v>5</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="2">
-        <f>O31+R31/5*25+S31/5*25</f>
-        <v>54.253703704</v>
+        <f t="shared" si="0"/>
+        <v>104.253703704</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3216,7 +3378,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="2">
-        <f>O32+R32/5*25+S32/5*25</f>
+        <f t="shared" si="0"/>
         <v>61.377777778</v>
       </c>
     </row>
@@ -3272,7 +3434,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="2">
-        <f>O33+R33/5*25+S33/5*25</f>
+        <f t="shared" si="0"/>
         <v>55.485185186</v>
       </c>
     </row>
@@ -3328,7 +3490,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="4">
-        <f>O34+R34/5*25+S34/5*25</f>
+        <f t="shared" si="0"/>
         <v>49.105555556</v>
       </c>
     </row>
@@ -3384,7 +3546,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="2">
-        <f>O35+R35/5*25+S35/5*25</f>
+        <f t="shared" si="0"/>
         <v>57.190740741</v>
       </c>
     </row>
@@ -3440,7 +3602,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="2">
-        <f>O36+R36/5*25+S36/5*25</f>
+        <f t="shared" si="0"/>
         <v>54.512962963</v>
       </c>
     </row>
@@ -3496,11 +3658,11 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="4">
-        <f>O37+R37/5*25+S37/5*25</f>
+        <f t="shared" si="0"/>
         <v>43.177777778</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" hidden="1" spans="1:22">
       <c r="A38" s="1">
         <v>135393966</v>
       </c>
@@ -3560,7 +3722,7 @@
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="2">
-        <f>O38+R38/5*25+S38/5*25</f>
+        <f t="shared" si="0"/>
         <v>104.872222223</v>
       </c>
       <c r="V38">
@@ -3619,7 +3781,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="2">
-        <f>O39+R39/5*25+S39/5*25</f>
+        <f t="shared" si="0"/>
         <v>53.601851852</v>
       </c>
     </row>
@@ -3675,7 +3837,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="2">
-        <f>O40+R40/5*25+S40/5*25</f>
+        <f t="shared" si="0"/>
         <v>56.261111111</v>
       </c>
     </row>
@@ -3731,7 +3893,7 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="4">
-        <f>O41+R41/5*25+S41/5*25</f>
+        <f t="shared" si="0"/>
         <v>48.027777778</v>
       </c>
     </row>
@@ -3787,11 +3949,11 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="2">
-        <f>O42+R42/5*25+S42/5*25</f>
+        <f t="shared" si="0"/>
         <v>52.151851852</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" hidden="1" spans="1:22">
       <c r="A43" s="3">
         <v>37010902</v>
       </c>
@@ -3851,7 +4013,7 @@
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="4">
-        <f>O43+R43/5*25+S43/5*25</f>
+        <f t="shared" si="0"/>
         <v>84.248148148</v>
       </c>
       <c r="V43">
@@ -3910,7 +4072,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="2">
-        <f>O44+R44/5*25+S44/5*25</f>
+        <f t="shared" si="0"/>
         <v>57.022222223</v>
       </c>
     </row>
@@ -3966,11 +4128,11 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="2">
-        <f>O45+R45/5*25+S45/5*25</f>
+        <f t="shared" si="0"/>
         <v>54.461111111</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" hidden="1" spans="1:22">
       <c r="A46" s="3">
         <v>32589632</v>
       </c>
@@ -4016,17 +4178,28 @@
       <c r="O46" s="4">
         <v>40.568518518</v>
       </c>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
+      <c r="P46" s="6">
+        <v>62</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>38</v>
+      </c>
+      <c r="R46" s="3">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
+        <v>4</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="4">
-        <f>O46+R46/5*25+S46/5*25</f>
-        <v>40.568518518</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>80.568518518</v>
+      </c>
+      <c r="V46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:22">
       <c r="A47" s="3">
         <v>52582988</v>
       </c>
@@ -4086,7 +4259,7 @@
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="4">
-        <f>O47+R47/5*25+S47/5*25</f>
+        <f t="shared" si="0"/>
         <v>62.312962964</v>
       </c>
       <c r="V47">
@@ -4145,7 +4318,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="2">
-        <f>O48+R48/5*25+S48/5*25</f>
+        <f t="shared" si="0"/>
         <v>59.272222223</v>
       </c>
     </row>
@@ -4201,7 +4374,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="2">
-        <f>O49+R49/5*25+S49/5*25</f>
+        <f t="shared" si="0"/>
         <v>57.501851853</v>
       </c>
     </row>
@@ -4257,7 +4430,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="2">
-        <f>O50+R50/5*25+S50/5*25</f>
+        <f t="shared" si="0"/>
         <v>57.335185186</v>
       </c>
     </row>
@@ -4313,11 +4486,11 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="4">
-        <f>O51+R51/5*25+S51/5*25</f>
+        <f t="shared" si="0"/>
         <v>47.838888889</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" hidden="1" spans="1:22">
       <c r="A52" s="1">
         <v>136478516</v>
       </c>
@@ -4377,7 +4550,7 @@
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="2">
-        <f>O52+R52/5*25+S52/5*25</f>
+        <f t="shared" si="0"/>
         <v>105.251851853</v>
       </c>
       <c r="V52">
@@ -4436,11 +4609,11 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="2">
-        <f>O53+R53/5*25+S53/5*25</f>
+        <f t="shared" si="0"/>
         <v>57.077777777</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" hidden="1" spans="1:22">
       <c r="A54" s="1">
         <v>135482132</v>
       </c>
@@ -4486,14 +4659,25 @@
       <c r="O54" s="2">
         <v>55.531481482</v>
       </c>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
+      <c r="P54" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>32</v>
+      </c>
+      <c r="R54" s="1">
+        <v>5</v>
+      </c>
+      <c r="S54" s="1">
+        <v>5</v>
+      </c>
       <c r="T54" s="1"/>
       <c r="U54" s="2">
-        <f>O54+R54/5*25+S54/5*25</f>
-        <v>55.531481482</v>
+        <f t="shared" si="0"/>
+        <v>105.531481482</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4548,11 +4732,11 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="4">
-        <f>O55+R55/5*25+S55/5*25</f>
+        <f t="shared" si="0"/>
         <v>41.651851853</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" hidden="1" spans="1:22">
       <c r="A56" s="1">
         <v>19491533</v>
       </c>
@@ -4598,17 +4782,28 @@
       <c r="O56" s="2">
         <v>62.872222223</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
+      <c r="P56" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>50</v>
+      </c>
+      <c r="R56" s="1">
+        <v>4</v>
+      </c>
+      <c r="S56" s="1">
+        <v>4</v>
+      </c>
       <c r="T56" s="1"/>
       <c r="U56" s="2">
-        <f>O56+R56/5*25+S56/5*25</f>
-        <v>62.872222223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <f t="shared" si="0"/>
+        <v>102.872222223</v>
+      </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:22">
       <c r="A57" s="1">
         <v>135929312</v>
       </c>
@@ -4654,17 +4849,28 @@
       <c r="O57" s="2">
         <v>59.272222223</v>
       </c>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
+      <c r="P57" s="5">
+        <v>41</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>22</v>
+      </c>
+      <c r="R57" s="1">
+        <v>4</v>
+      </c>
+      <c r="S57" s="1">
+        <v>4</v>
+      </c>
       <c r="T57" s="1"/>
       <c r="U57" s="2">
-        <f>O57+R57/5*25+S57/5*25</f>
-        <v>59.272222223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <f t="shared" si="0"/>
+        <v>99.272222223</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:22">
       <c r="A58" s="1">
         <v>135503778</v>
       </c>
@@ -4710,14 +4916,25 @@
       <c r="O58" s="2">
         <v>56.483333333</v>
       </c>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
+      <c r="P58" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>37</v>
+      </c>
+      <c r="R58" s="1">
+        <v>5</v>
+      </c>
+      <c r="S58" s="1">
+        <v>5</v>
+      </c>
       <c r="T58" s="1"/>
       <c r="U58" s="2">
-        <f>O58+R58/5*25+S58/5*25</f>
-        <v>56.483333333</v>
+        <f t="shared" si="0"/>
+        <v>106.483333333</v>
+      </c>
+      <c r="V58">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4772,11 +4989,11 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="4">
-        <f>O59+R59/5*25+S59/5*25</f>
+        <f t="shared" si="0"/>
         <v>21.083333333</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" hidden="1" spans="1:22">
       <c r="A60" s="1">
         <v>135654998</v>
       </c>
@@ -4836,7 +5053,7 @@
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="2">
-        <f>O60+R60/5*25+S60/5*25</f>
+        <f t="shared" si="0"/>
         <v>107.255555556</v>
       </c>
       <c r="V60">
@@ -4895,7 +5112,7 @@
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="4">
-        <f>O61+R61/5*25+S61/5*25</f>
+        <f t="shared" si="0"/>
         <v>49.392592592</v>
       </c>
     </row>
@@ -4951,7 +5168,7 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="4">
-        <f>O62+R62/5*25+S62/5*25</f>
+        <f t="shared" si="0"/>
         <v>48.255555556</v>
       </c>
     </row>
@@ -5007,7 +5224,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="2">
-        <f>O63+R63/5*25+S63/5*25</f>
+        <f t="shared" si="0"/>
         <v>55.485185185</v>
       </c>
     </row>
@@ -5063,11 +5280,11 @@
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="4">
-        <f>O64+R64/5*25+S64/5*25</f>
+        <f t="shared" si="0"/>
         <v>32.124074074</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" hidden="1" spans="1:22">
       <c r="A65" s="1">
         <v>61456289</v>
       </c>
@@ -5127,7 +5344,7 @@
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="2">
-        <f>O65+R65/5*25+S65/5*25</f>
+        <f t="shared" si="0"/>
         <v>102.801851853</v>
       </c>
       <c r="V65">
@@ -5186,11 +5403,11 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="2">
-        <f>O66+R66/5*25+S66/5*25</f>
+        <f t="shared" ref="U66:U99" si="1">O66+R66/5*25+S66/5*25</f>
         <v>57.098148148</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" hidden="1" spans="1:22">
       <c r="A67" s="1">
         <v>61558096</v>
       </c>
@@ -5248,9 +5465,9 @@
       <c r="S67" s="1">
         <v>4</v>
       </c>
-      <c r="T67" s="8"/>
+      <c r="T67" s="7"/>
       <c r="U67" s="2">
-        <f>O67+R67/5*25+S67/5*25</f>
+        <f t="shared" si="1"/>
         <v>95.594444444</v>
       </c>
       <c r="V67">
@@ -5309,7 +5526,7 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="4">
-        <f>O68+R68/5*25+S68/5*25</f>
+        <f t="shared" si="1"/>
         <v>22.155555556</v>
       </c>
     </row>
@@ -5365,7 +5582,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="2">
-        <f>O69+R69/5*25+S69/5*25</f>
+        <f t="shared" si="1"/>
         <v>56.285185186</v>
       </c>
     </row>
@@ -5421,7 +5638,7 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="4">
-        <f>O70+R70/5*25+S70/5*25</f>
+        <f t="shared" si="1"/>
         <v>49.577777778</v>
       </c>
     </row>
@@ -5475,9 +5692,8 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
-      <c r="T71"/>
       <c r="U71" s="4">
-        <f>O71+R71/5*25+S71/5*25</f>
+        <f t="shared" si="1"/>
         <v>44.018518518</v>
       </c>
     </row>
@@ -5533,7 +5749,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="2">
-        <f>O72+R72/5*25+S72/5*25</f>
+        <f t="shared" si="1"/>
         <v>53.227777778</v>
       </c>
     </row>
@@ -5589,7 +5805,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="2">
-        <f>O73+R73/5*25+S73/5*25</f>
+        <f t="shared" si="1"/>
         <v>55.279629629</v>
       </c>
     </row>
@@ -5645,7 +5861,7 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="4">
-        <f>O74+R74/5*25+S74/5*25</f>
+        <f t="shared" si="1"/>
         <v>43.983333333</v>
       </c>
     </row>
@@ -5699,9 +5915,8 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
-      <c r="T75"/>
       <c r="U75" s="4">
-        <f>O75+R75/5*25+S75/5*25</f>
+        <f t="shared" si="1"/>
         <v>37.214814815</v>
       </c>
     </row>
@@ -5757,11 +5972,11 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="2">
-        <f>O76+R76/5*25+S76/5*25</f>
+        <f t="shared" si="1"/>
         <v>51.781481482</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" hidden="1" spans="1:22">
       <c r="A77" s="1">
         <v>135894390</v>
       </c>
@@ -5807,14 +6022,25 @@
       <c r="O77" s="2">
         <v>52.005555555</v>
       </c>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+      <c r="P77" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>19</v>
+      </c>
+      <c r="R77" s="1">
+        <v>5</v>
+      </c>
+      <c r="S77" s="1">
+        <v>4</v>
+      </c>
       <c r="T77" s="1"/>
       <c r="U77" s="2">
-        <f>O77+R77/5*25+S77/5*25</f>
-        <v>52.005555555</v>
+        <f t="shared" si="1"/>
+        <v>97.005555555</v>
+      </c>
+      <c r="V77">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5869,7 +6095,7 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="4">
-        <f>O78+R78/5*25+S78/5*25</f>
+        <f t="shared" si="1"/>
         <v>48.562962963</v>
       </c>
     </row>
@@ -5925,7 +6151,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="2">
-        <f>O79+R79/5*25+S79/5*25</f>
+        <f t="shared" si="1"/>
         <v>56.937037037</v>
       </c>
     </row>
@@ -5981,11 +6207,11 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="2">
-        <f>O80+R80/5*25+S80/5*25</f>
+        <f t="shared" si="1"/>
         <v>53.144444445</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" hidden="1" spans="1:22">
       <c r="A81" s="1">
         <v>77910974</v>
       </c>
@@ -6031,14 +6257,25 @@
       <c r="O81" s="2">
         <v>52.61851852</v>
       </c>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="8"/>
+      <c r="P81" s="5">
+        <v>64</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>10</v>
+      </c>
+      <c r="R81" s="1">
+        <v>5</v>
+      </c>
+      <c r="S81" s="1">
+        <v>5</v>
+      </c>
+      <c r="T81" s="7"/>
       <c r="U81" s="2">
-        <f>O81+R81/5*25+S81/5*25</f>
-        <v>52.61851852</v>
+        <f t="shared" si="1"/>
+        <v>102.61851852</v>
+      </c>
+      <c r="V81">
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -6093,11 +6330,11 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="2">
-        <f>O82+R82/5*25+S82/5*25</f>
+        <f t="shared" si="1"/>
         <v>55.968518519</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" hidden="1" spans="1:22">
       <c r="A83" s="1">
         <v>135551451</v>
       </c>
@@ -6143,14 +6380,25 @@
       <c r="O83" s="2">
         <v>50.894444444</v>
       </c>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
+      <c r="P83" s="5">
+        <v>61</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>5</v>
+      </c>
+      <c r="R83" s="1">
+        <v>5</v>
+      </c>
+      <c r="S83" s="1">
+        <v>5</v>
+      </c>
       <c r="T83" s="1"/>
       <c r="U83" s="2">
-        <f>O83+R83/5*25+S83/5*25</f>
-        <v>50.894444444</v>
+        <f t="shared" si="1"/>
+        <v>100.894444444</v>
+      </c>
+      <c r="V83">
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -6203,9 +6451,9 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-      <c r="T84" s="8"/>
+      <c r="T84" s="7"/>
       <c r="U84" s="2">
-        <f>O84+R84/5*25+S84/5*25</f>
+        <f t="shared" si="1"/>
         <v>53.938888889</v>
       </c>
     </row>
@@ -6261,11 +6509,11 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="2">
-        <f>O85+R85/5*25+S85/5*25</f>
+        <f t="shared" si="1"/>
         <v>51.59074074</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" hidden="1" spans="1:22">
       <c r="A86" s="1">
         <v>135402036</v>
       </c>
@@ -6323,16 +6571,16 @@
       <c r="S86" s="1">
         <v>5</v>
       </c>
-      <c r="T86" s="8"/>
+      <c r="T86" s="7"/>
       <c r="U86" s="2">
-        <f>O86+R86/5*25+S86/5*25</f>
+        <f t="shared" si="1"/>
         <v>105.568518519</v>
       </c>
       <c r="V86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" hidden="1" spans="1:22">
       <c r="A87" s="1">
         <v>135507625</v>
       </c>
@@ -6392,14 +6640,14 @@
       </c>
       <c r="T87" s="1"/>
       <c r="U87" s="2">
-        <f>O87+R87/5*25+S87/5*25</f>
+        <f t="shared" si="1"/>
         <v>102.705555556</v>
       </c>
       <c r="V87">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" hidden="1" spans="1:22">
       <c r="A88" s="3">
         <v>61401274</v>
       </c>
@@ -6457,9 +6705,8 @@
       <c r="S88" s="3">
         <v>4</v>
       </c>
-      <c r="T88"/>
       <c r="U88" s="4">
-        <f>O88+R88/5*25+S88/5*25</f>
+        <f t="shared" si="1"/>
         <v>83.468518519</v>
       </c>
       <c r="V88">
@@ -6518,11 +6765,11 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
       <c r="U89" s="4">
-        <f>O89+R89/5*25+S89/5*25</f>
+        <f t="shared" si="1"/>
         <v>48.744444445</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" hidden="1" spans="1:22">
       <c r="A90" s="3">
         <v>135486870</v>
       </c>
@@ -6582,14 +6829,14 @@
       </c>
       <c r="T90" s="3"/>
       <c r="U90" s="4">
-        <f>O90+R90/5*25+S90/5*25</f>
+        <f t="shared" si="1"/>
         <v>90.970370371</v>
       </c>
       <c r="V90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" hidden="1" spans="1:22">
       <c r="A91" s="3">
         <v>135517241</v>
       </c>
@@ -6649,14 +6896,14 @@
       </c>
       <c r="T91" s="3"/>
       <c r="U91" s="4">
-        <f>O91+R91/5*25+S91/5*25</f>
+        <f t="shared" si="1"/>
         <v>95.955555556</v>
       </c>
       <c r="V91">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" hidden="1" spans="1:22">
       <c r="A92" s="1">
         <v>40227731</v>
       </c>
@@ -6714,16 +6961,16 @@
       <c r="S92" s="1">
         <v>3</v>
       </c>
-      <c r="T92" s="8"/>
+      <c r="T92" s="7"/>
       <c r="U92" s="2">
-        <f>O92+R92/5*25+S92/5*25</f>
+        <f t="shared" si="1"/>
         <v>92.088888889</v>
       </c>
       <c r="V92">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" hidden="1" spans="1:22">
       <c r="A93" s="1">
         <v>84724396</v>
       </c>
@@ -6781,16 +7028,16 @@
       <c r="S93" s="1">
         <v>5</v>
       </c>
-      <c r="T93" s="8"/>
+      <c r="T93" s="7"/>
       <c r="U93" s="2">
-        <f>O93+R93/5*25+S93/5*25</f>
+        <f t="shared" si="1"/>
         <v>107.65</v>
       </c>
       <c r="V93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" hidden="1" spans="1:22">
       <c r="A94" s="3">
         <v>56002756</v>
       </c>
@@ -6850,14 +7097,14 @@
       </c>
       <c r="T94" s="3"/>
       <c r="U94" s="4">
-        <f>O94+R94/5*25+S94/5*25</f>
+        <f t="shared" si="1"/>
         <v>93.866666666</v>
       </c>
       <c r="V94">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" hidden="1" spans="1:22">
       <c r="A95" s="3">
         <v>135517381</v>
       </c>
@@ -6915,16 +7162,15 @@
       <c r="S95" s="3">
         <v>3</v>
       </c>
-      <c r="T95"/>
       <c r="U95" s="4">
-        <f>O95+R95/5*25+S95/5*25</f>
+        <f t="shared" si="1"/>
         <v>74.700000001</v>
       </c>
       <c r="V95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" hidden="1" spans="1:22">
       <c r="A96" s="1">
         <v>135396655</v>
       </c>
@@ -6984,14 +7230,14 @@
       </c>
       <c r="T96" s="1"/>
       <c r="U96" s="2">
-        <f>O96+R96/5*25+S96/5*25</f>
+        <f t="shared" si="1"/>
         <v>108.572222223</v>
       </c>
       <c r="V96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" hidden="1" spans="1:22">
       <c r="A97" s="1">
         <v>135474063</v>
       </c>
@@ -7037,17 +7283,28 @@
       <c r="O97" s="2">
         <v>56.014814815</v>
       </c>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
+      <c r="P97" s="5">
+        <v>74</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>43</v>
+      </c>
+      <c r="R97" s="1">
+        <v>3</v>
+      </c>
+      <c r="S97" s="1">
+        <v>3</v>
+      </c>
       <c r="T97" s="1"/>
       <c r="U97" s="2">
-        <f>O97+R97/5*25+S97/5*25</f>
-        <v>56.014814815</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>86.014814815</v>
+      </c>
+      <c r="V97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:22">
       <c r="A98" s="1">
         <v>133106461</v>
       </c>
@@ -7105,9 +7362,9 @@
       <c r="S98" s="1">
         <v>5</v>
       </c>
-      <c r="T98" s="8"/>
+      <c r="T98" s="7"/>
       <c r="U98" s="2">
-        <f>O98+R98/5*25+S98/5*25</f>
+        <f t="shared" si="1"/>
         <v>100.166666667</v>
       </c>
       <c r="V98">
@@ -7166,12 +7423,15 @@
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
       <c r="U99" s="4">
-        <f>O99+R99/5*25+S99/5*25</f>
+        <f t="shared" si="1"/>
         <v>37.459259259</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S99">
+    <filterColumn colId="15">
+      <filters blank="1"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:U99">

--- a/data/Экзамен 2020.xlsx
+++ b/data/Экзамен 2020.xlsx
@@ -396,15 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,7 +412,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,16 +502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,54 +519,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +555,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,139 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,19 +669,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,11 +749,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,58 +838,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,16 +851,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,64 +872,100 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,61 +974,25 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,6 +1080,1460 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$2:$O$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>53.964814815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.633333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.262962963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.781481482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.187037037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.027777778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.161111112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.859259258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.024074074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.32962963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.492592592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.427777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.646378767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.846296296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.011111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.818518519</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.559259259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.672222223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.890740741</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.440740741</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.022222223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.651851852</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58.355555556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.918518519</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.220370371</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.374074074</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.161111111</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58.174074074</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.651851852</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.253703704</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61.377777778</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.485185186</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.105555556</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.190740741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54.512962963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.177777778</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54.872222223</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.601851852</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.261111111</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48.027777778</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.151851852</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.248148148</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57.022222223</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.461111111</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.568518518</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.312962964</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59.272222223</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.501851853</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.335185186</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.838888889</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55.251851853</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>57.077777777</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.531481482</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41.651851853</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62.872222223</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>59.272222223</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.483333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21.083333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.255555556</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49.392592592</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48.255555556</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>55.485185185</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.124074074</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>52.801851853</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57.098148148</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50.594444444</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22.155555556</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>56.285185186</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49.577777778</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44.018518518</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>53.227777778</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>55.279629629</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.983333333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37.214814815</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.781481482</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>52.005555555</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>48.562962963</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>56.937037037</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>53.144444445</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>52.61851852</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>55.968518519</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>50.894444444</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53.938888889</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51.59074074</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>55.568518519</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>52.705555556</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>48.468518519</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48.744444445</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40.970370371</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45.955555556</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57.088888889</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57.65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43.866666666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>39.700000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>63.572222223</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>56.014814815</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>50.166666667</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37.459259259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$U$2:$U$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>103.964814815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.633333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.262962963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.781481482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.187037037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.027777778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.161111112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.859259258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.024074074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.32962963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.492592592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.427777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102.646378767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.846296296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.011111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.818518519</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.559259259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110.672222223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.890740741</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106.440740741</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107.022222223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101.651851852</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>108.355555556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.918518519</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.220370371</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100.374074074</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104.161111111</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108.174074074</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91.651851852</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104.253703704</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>111.377777778</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100.485185186</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.105555556</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>102.190740741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.512962963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>93.177777778</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104.872222223</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.601851852</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>106.261111111</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98.027777778</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87.151851852</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.248148148</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>107.022222223</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>104.461111111</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80.568518518</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62.312962964</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>109.272222223</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.501851853</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97.335185186</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>92.838888889</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105.251851853</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>107.077777777</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>105.531481482</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41.651851853</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>102.872222223</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99.272222223</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>106.483333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21.083333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>107.255555556</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99.392592592</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48.255555556</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>105.485185185</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.124074074</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>102.801851853</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>102.098148148</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>95.594444444</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>62.155555556</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>106.285185186</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>94.577777778</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79.018518518</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>98.227777778</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>100.279629629</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>93.983333333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>67.214814815</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>101.781481482</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>97.005555555</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>93.562962963</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>86.937037037</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>103.144444445</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>102.61851852</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>105.968518519</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>100.894444444</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>98.938888889</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>101.59074074</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>105.568518519</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>102.705555556</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>83.468518519</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>98.744444445</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.970370371</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>95.955555556</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92.088888889</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>107.65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.866666666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>74.700000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>108.572222223</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>86.014814815</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>100.166666667</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>82.459259259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="867309429"/>
+        <c:axId val="662981196"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="867309429"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662981196"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="662981196"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867309429"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1289050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12598400" y="990600"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1339,15 +2793,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomRight" activeCell="U99" sqref="O2:O99 U2:U99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1426,7 +2880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:22">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>135496443</v>
       </c>
@@ -1549,7 +3003,7 @@
         <v>17.633333334</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:22">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>135505048</v>
       </c>
@@ -1616,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:22">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>135403557</v>
       </c>
@@ -1683,7 +3137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:22">
+    <row r="6" spans="1:22">
       <c r="A6" s="3">
         <v>135447191</v>
       </c>
@@ -1743,14 +3197,14 @@
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="2">
-        <f>O6+R6/5*25+S6/5*25</f>
+        <f t="shared" si="0"/>
         <v>84.187037037</v>
       </c>
       <c r="V6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>136618799</v>
       </c>
@@ -1796,17 +3250,28 @@
       <c r="O7" s="2">
         <v>51.027777778</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="P7" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>51.027777778</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:22">
+        <v>101.027777778</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>135491554</v>
       </c>
@@ -1873,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>135490517</v>
       </c>
@@ -1919,17 +3384,28 @@
       <c r="O9" s="4">
         <v>49.859259258</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="P9" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>23</v>
+      </c>
+      <c r="R9" s="3">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>4</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="4">
         <f t="shared" si="0"/>
-        <v>49.859259258</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:22">
+        <v>89.859259258</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>135468336</v>
       </c>
@@ -1996,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>135470089</v>
       </c>
@@ -2042,17 +3518,28 @@
       <c r="O11" s="2">
         <v>57.32962963</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="P11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>41</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="2">
         <f t="shared" si="0"/>
-        <v>57.32962963</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" spans="1:22">
+        <v>107.32962963</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>58522742</v>
       </c>
@@ -2119,7 +3606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:22">
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>135560433</v>
       </c>
@@ -2186,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:22">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>135474875</v>
       </c>
@@ -2253,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="3">
         <v>135398275</v>
       </c>
@@ -2299,17 +3786,28 @@
       <c r="O15" s="4">
         <v>45.846296296</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="P15" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>19</v>
+      </c>
+      <c r="R15" s="3">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
+        <v>3</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="4">
         <f t="shared" si="0"/>
-        <v>45.846296296</v>
-      </c>
-    </row>
-    <row r="16" hidden="1" spans="1:22">
+        <v>80.846296296</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>137342742</v>
       </c>
@@ -2376,7 +3874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" s="3">
         <v>137413300</v>
       </c>
@@ -2422,17 +3920,28 @@
       <c r="O17" s="4">
         <v>47.818518519</v>
       </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="P17" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>59</v>
+      </c>
+      <c r="R17" s="3">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
+        <v>3</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="4">
         <f t="shared" si="0"/>
-        <v>47.818518519</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" spans="1:22">
+        <v>82.818518519</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>137366991</v>
       </c>
@@ -2499,7 +4008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:22">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>135465278</v>
       </c>
@@ -2566,7 +4075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" s="3">
         <v>135393590</v>
       </c>
@@ -2612,17 +4121,28 @@
       <c r="O20" s="4">
         <v>43.890740741</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="P20" s="6">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>15</v>
+      </c>
+      <c r="R20" s="3">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
+        <v>4</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="4">
         <f t="shared" si="0"/>
-        <v>43.890740741</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" spans="1:22">
+        <v>88.890740741</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>135569834</v>
       </c>
@@ -2689,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:22">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>121106547</v>
       </c>
@@ -2756,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:22">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>135560396</v>
       </c>
@@ -2823,7 +4343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:22">
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>135868620</v>
       </c>
@@ -2890,7 +4410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:22">
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>121710203</v>
       </c>
@@ -3013,7 +4533,7 @@
         <v>31.220370371</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:22">
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>135481233</v>
       </c>
@@ -3080,7 +4600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:22">
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>135499542</v>
       </c>
@@ -3147,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>90419254</v>
       </c>
@@ -3193,17 +4713,28 @@
       <c r="O29" s="2">
         <v>58.174074074</v>
       </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="P29" s="5">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>25</v>
+      </c>
+      <c r="R29" s="1">
+        <v>5</v>
+      </c>
+      <c r="S29" s="1">
+        <v>5</v>
+      </c>
       <c r="T29" s="1"/>
       <c r="U29" s="2">
         <f t="shared" si="0"/>
-        <v>58.174074074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>108.174074074</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="3">
         <v>88490850</v>
       </c>
@@ -3249,17 +4780,28 @@
       <c r="O30" s="4">
         <v>46.651851852</v>
       </c>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="P30" s="6">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>49</v>
+      </c>
+      <c r="R30" s="3">
+        <v>5</v>
+      </c>
+      <c r="S30" s="3">
+        <v>4</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="4">
         <f t="shared" si="0"/>
-        <v>46.651851852</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:22">
+        <v>91.651851852</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>59188161</v>
       </c>
@@ -3326,7 +4868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>135394948</v>
       </c>
@@ -3372,17 +4914,28 @@
       <c r="O32" s="2">
         <v>61.377777778</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="P32" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>47</v>
+      </c>
+      <c r="R32" s="1">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1">
+        <v>5</v>
+      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="2">
         <f t="shared" si="0"/>
-        <v>61.377777778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>111.377777778</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>135394266</v>
       </c>
@@ -3428,17 +4981,28 @@
       <c r="O33" s="2">
         <v>55.485185186</v>
       </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="P33" s="5">
+        <v>65</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>10</v>
+      </c>
+      <c r="R33" s="1">
+        <v>4</v>
+      </c>
+      <c r="S33" s="1">
+        <v>5</v>
+      </c>
       <c r="T33" s="1"/>
       <c r="U33" s="2">
         <f t="shared" si="0"/>
-        <v>55.485185186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>100.485185186</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="3">
         <v>36484324</v>
       </c>
@@ -3484,17 +5048,28 @@
       <c r="O34" s="4">
         <v>49.105555556</v>
       </c>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="P34" s="6">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>44</v>
+      </c>
+      <c r="R34" s="3">
+        <v>3</v>
+      </c>
+      <c r="S34" s="3">
+        <v>4</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="4">
         <f t="shared" si="0"/>
-        <v>49.105555556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>84.105555556</v>
+      </c>
+      <c r="V34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>135436926</v>
       </c>
@@ -3540,17 +5115,28 @@
       <c r="O35" s="2">
         <v>57.190740741</v>
       </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="P35" s="5">
+        <v>52</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>39</v>
+      </c>
+      <c r="R35" s="1">
+        <v>5</v>
+      </c>
+      <c r="S35" s="1">
+        <v>4</v>
+      </c>
       <c r="T35" s="1"/>
       <c r="U35" s="2">
         <f t="shared" si="0"/>
-        <v>57.190740741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>102.190740741</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>19850193</v>
       </c>
@@ -3596,17 +5182,28 @@
       <c r="O36" s="2">
         <v>54.512962963</v>
       </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="P36" s="5">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>58</v>
+      </c>
+      <c r="R36" s="1">
+        <v>4</v>
+      </c>
+      <c r="S36" s="1">
+        <v>5</v>
+      </c>
       <c r="T36" s="1"/>
       <c r="U36" s="2">
         <f t="shared" si="0"/>
-        <v>54.512962963</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>99.512962963</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="3">
         <v>38021891</v>
       </c>
@@ -3652,17 +5249,28 @@
       <c r="O37" s="4">
         <v>43.177777778</v>
       </c>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="P37" s="6">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>35</v>
+      </c>
+      <c r="R37" s="3">
+        <v>5</v>
+      </c>
+      <c r="S37" s="3">
+        <v>5</v>
+      </c>
       <c r="T37" s="3"/>
       <c r="U37" s="4">
         <f t="shared" si="0"/>
-        <v>43.177777778</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:22">
+        <v>93.177777778</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>135393966</v>
       </c>
@@ -3729,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>135591872</v>
       </c>
@@ -3775,17 +5383,28 @@
       <c r="O39" s="2">
         <v>53.601851852</v>
       </c>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="P39" s="5">
+        <v>67</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>51</v>
+      </c>
+      <c r="R39" s="1">
+        <v>4</v>
+      </c>
+      <c r="S39" s="1">
+        <v>4</v>
+      </c>
       <c r="T39" s="1"/>
       <c r="U39" s="2">
         <f t="shared" si="0"/>
-        <v>53.601851852</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>93.601851852</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>135458190</v>
       </c>
@@ -3831,17 +5450,28 @@
       <c r="O40" s="2">
         <v>56.261111111</v>
       </c>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="P40" s="5">
+        <v>82</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>22</v>
+      </c>
+      <c r="R40" s="1">
+        <v>5</v>
+      </c>
+      <c r="S40" s="1">
+        <v>5</v>
+      </c>
       <c r="T40" s="1"/>
       <c r="U40" s="2">
         <f t="shared" si="0"/>
-        <v>56.261111111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>106.261111111</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="3">
         <v>135509654</v>
       </c>
@@ -3887,17 +5517,28 @@
       <c r="O41" s="4">
         <v>48.027777778</v>
       </c>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
+      <c r="P41" s="6">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>57</v>
+      </c>
+      <c r="R41" s="3">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
+        <v>5</v>
+      </c>
       <c r="T41" s="3"/>
       <c r="U41" s="4">
         <f t="shared" si="0"/>
-        <v>48.027777778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>98.027777778</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40281030</v>
       </c>
@@ -3943,17 +5584,28 @@
       <c r="O42" s="2">
         <v>52.151851852</v>
       </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="P42" s="5">
+        <v>43</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>3</v>
+      </c>
+      <c r="R42" s="1">
+        <v>3</v>
+      </c>
+      <c r="S42" s="1">
+        <v>4</v>
+      </c>
       <c r="T42" s="1"/>
       <c r="U42" s="2">
         <f t="shared" si="0"/>
-        <v>52.151851852</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:22">
+        <v>87.151851852</v>
+      </c>
+      <c r="V42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="3">
         <v>37010902</v>
       </c>
@@ -4020,7 +5672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>135394706</v>
       </c>
@@ -4066,17 +5718,28 @@
       <c r="O44" s="2">
         <v>57.022222223</v>
       </c>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="P44" s="5">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>13</v>
+      </c>
+      <c r="R44" s="1">
+        <v>5</v>
+      </c>
+      <c r="S44" s="1">
+        <v>5</v>
+      </c>
       <c r="T44" s="1"/>
       <c r="U44" s="2">
         <f t="shared" si="0"/>
-        <v>57.022222223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>107.022222223</v>
+      </c>
+      <c r="V44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>135605766</v>
       </c>
@@ -4122,17 +5785,28 @@
       <c r="O45" s="2">
         <v>54.461111111</v>
       </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
+      <c r="P45" s="5">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>28</v>
+      </c>
+      <c r="R45" s="1">
+        <v>5</v>
+      </c>
+      <c r="S45" s="1">
+        <v>5</v>
+      </c>
       <c r="T45" s="1"/>
       <c r="U45" s="2">
         <f t="shared" si="0"/>
-        <v>54.461111111</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" spans="1:22">
+        <v>104.461111111</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="3">
         <v>32589632</v>
       </c>
@@ -4199,7 +5873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:22">
+    <row r="47" spans="1:22">
       <c r="A47" s="3">
         <v>52582988</v>
       </c>
@@ -4266,7 +5940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>135393813</v>
       </c>
@@ -4312,14 +5986,25 @@
       <c r="O48" s="2">
         <v>59.272222223</v>
       </c>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
+      <c r="P48" s="5">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>5</v>
+      </c>
+      <c r="R48" s="1">
+        <v>5</v>
+      </c>
+      <c r="S48" s="1">
+        <v>5</v>
+      </c>
       <c r="T48" s="1"/>
       <c r="U48" s="2">
         <f t="shared" si="0"/>
-        <v>59.272222223</v>
+        <v>109.272222223</v>
+      </c>
+      <c r="V48">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4378,7 +6063,7 @@
         <v>57.501851853</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>137188385</v>
       </c>
@@ -4424,17 +6109,28 @@
       <c r="O50" s="2">
         <v>57.335185186</v>
       </c>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
+      <c r="P50" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>16</v>
+      </c>
+      <c r="R50" s="1">
+        <v>4</v>
+      </c>
+      <c r="S50" s="1">
+        <v>4</v>
+      </c>
       <c r="T50" s="1"/>
       <c r="U50" s="2">
         <f t="shared" si="0"/>
-        <v>57.335185186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>97.335185186</v>
+      </c>
+      <c r="V50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="3">
         <v>135395127</v>
       </c>
@@ -4480,17 +6176,28 @@
       <c r="O51" s="4">
         <v>47.838888889</v>
       </c>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
+      <c r="P51" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>55</v>
+      </c>
+      <c r="R51" s="3">
+        <v>5</v>
+      </c>
+      <c r="S51" s="3">
+        <v>4</v>
+      </c>
       <c r="T51" s="3"/>
       <c r="U51" s="4">
         <f t="shared" si="0"/>
-        <v>47.838888889</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="1:22">
+        <v>92.838888889</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>136478516</v>
       </c>
@@ -4557,7 +6264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>53683751</v>
       </c>
@@ -4603,17 +6310,28 @@
       <c r="O53" s="2">
         <v>57.077777777</v>
       </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
+      <c r="P53" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>11</v>
+      </c>
+      <c r="R53" s="1">
+        <v>5</v>
+      </c>
+      <c r="S53" s="1">
+        <v>5</v>
+      </c>
       <c r="T53" s="1"/>
       <c r="U53" s="2">
         <f t="shared" si="0"/>
-        <v>57.077777777</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" spans="1:22">
+        <v>107.077777777</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>135482132</v>
       </c>
@@ -4736,7 +6454,7 @@
         <v>41.651851853</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:22">
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>19491533</v>
       </c>
@@ -4803,7 +6521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:22">
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>135929312</v>
       </c>
@@ -4870,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:22">
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>135503778</v>
       </c>
@@ -4993,7 +6711,7 @@
         <v>21.083333333</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:22">
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>135654998</v>
       </c>
@@ -5060,7 +6778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:22">
       <c r="A61" s="3">
         <v>122146324</v>
       </c>
@@ -5106,14 +6824,25 @@
       <c r="O61" s="4">
         <v>49.392592592</v>
       </c>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
+      <c r="P61" s="6">
+        <v>69</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>18</v>
+      </c>
+      <c r="R61" s="3">
+        <v>5</v>
+      </c>
+      <c r="S61" s="3">
+        <v>5</v>
+      </c>
       <c r="T61" s="3"/>
       <c r="U61" s="4">
         <f t="shared" si="0"/>
-        <v>49.392592592</v>
+        <v>99.392592592</v>
+      </c>
+      <c r="V61">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -5172,7 +6901,7 @@
         <v>48.255555556</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>135472805</v>
       </c>
@@ -5218,14 +6947,25 @@
       <c r="O63" s="2">
         <v>55.485185185</v>
       </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
+      <c r="P63" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>48</v>
+      </c>
+      <c r="R63" s="1">
+        <v>5</v>
+      </c>
+      <c r="S63" s="1">
+        <v>5</v>
+      </c>
       <c r="T63" s="1"/>
       <c r="U63" s="2">
         <f t="shared" si="0"/>
-        <v>55.485185185</v>
+        <v>105.485185185</v>
+      </c>
+      <c r="V63">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -5284,7 +7024,7 @@
         <v>32.124074074</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:22">
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>61456289</v>
       </c>
@@ -5351,7 +7091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>135609455</v>
       </c>
@@ -5397,17 +7137,28 @@
       <c r="O66" s="2">
         <v>57.098148148</v>
       </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
+      <c r="P66" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>54</v>
+      </c>
+      <c r="R66" s="1">
+        <v>5</v>
+      </c>
+      <c r="S66" s="1">
+        <v>4</v>
+      </c>
       <c r="T66" s="1"/>
       <c r="U66" s="2">
         <f t="shared" ref="U66:U99" si="1">O66+R66/5*25+S66/5*25</f>
-        <v>57.098148148</v>
-      </c>
-    </row>
-    <row r="67" hidden="1" spans="1:22">
+        <v>102.098148148</v>
+      </c>
+      <c r="V66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>61558096</v>
       </c>
@@ -5474,7 +7225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:22">
       <c r="A68" s="3">
         <v>137374462</v>
       </c>
@@ -5520,17 +7271,28 @@
       <c r="O68" s="4">
         <v>22.155555556</v>
       </c>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
+      <c r="P68" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>10</v>
+      </c>
+      <c r="R68" s="3">
+        <v>4</v>
+      </c>
+      <c r="S68" s="3">
+        <v>4</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="4">
         <f t="shared" si="1"/>
-        <v>22.155555556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>62.155555556</v>
+      </c>
+      <c r="V68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>49342112</v>
       </c>
@@ -5576,17 +7338,28 @@
       <c r="O69" s="2">
         <v>56.285185186</v>
       </c>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
+      <c r="P69" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>45</v>
+      </c>
+      <c r="R69" s="1">
+        <v>5</v>
+      </c>
+      <c r="S69" s="1">
+        <v>5</v>
+      </c>
       <c r="T69" s="1"/>
       <c r="U69" s="2">
         <f t="shared" si="1"/>
-        <v>56.285185186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>106.285185186</v>
+      </c>
+      <c r="V69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="3">
         <v>55499378</v>
       </c>
@@ -5632,17 +7405,28 @@
       <c r="O70" s="4">
         <v>49.577777778</v>
       </c>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
+      <c r="P70" s="6">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>44</v>
+      </c>
+      <c r="R70" s="3">
+        <v>5</v>
+      </c>
+      <c r="S70" s="3">
+        <v>4</v>
+      </c>
       <c r="T70" s="3"/>
       <c r="U70" s="4">
         <f t="shared" si="1"/>
-        <v>49.577777778</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>94.577777778</v>
+      </c>
+      <c r="V70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="3">
         <v>84611763</v>
       </c>
@@ -5688,16 +7472,27 @@
       <c r="O71" s="4">
         <v>44.018518518</v>
       </c>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
+      <c r="P71" s="6">
+        <v>48</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>3</v>
+      </c>
+      <c r="R71" s="3">
+        <v>4</v>
+      </c>
+      <c r="S71" s="3">
+        <v>3</v>
+      </c>
       <c r="U71" s="4">
         <f t="shared" si="1"/>
-        <v>44.018518518</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>79.018518518</v>
+      </c>
+      <c r="V71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>73366967</v>
       </c>
@@ -5743,17 +7538,28 @@
       <c r="O72" s="2">
         <v>53.227777778</v>
       </c>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
+      <c r="P72" s="5">
+        <v>71</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>25</v>
+      </c>
+      <c r="R72" s="1">
+        <v>5</v>
+      </c>
+      <c r="S72" s="1">
+        <v>4</v>
+      </c>
       <c r="T72" s="1"/>
       <c r="U72" s="2">
         <f t="shared" si="1"/>
-        <v>53.227777778</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>98.227777778</v>
+      </c>
+      <c r="V72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>130171543</v>
       </c>
@@ -5799,17 +7605,28 @@
       <c r="O73" s="2">
         <v>55.279629629</v>
       </c>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
+      <c r="P73" s="5">
+        <v>41</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>41</v>
+      </c>
+      <c r="R73" s="1">
+        <v>5</v>
+      </c>
+      <c r="S73" s="1">
+        <v>4</v>
+      </c>
       <c r="T73" s="1"/>
       <c r="U73" s="2">
         <f t="shared" si="1"/>
-        <v>55.279629629</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>100.279629629</v>
+      </c>
+      <c r="V73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="3">
         <v>135563911</v>
       </c>
@@ -5855,17 +7672,28 @@
       <c r="O74" s="4">
         <v>43.983333333</v>
       </c>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
+      <c r="P74" s="6">
+        <v>61</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>23</v>
+      </c>
+      <c r="R74" s="3">
+        <v>5</v>
+      </c>
+      <c r="S74" s="3">
+        <v>5</v>
+      </c>
       <c r="T74" s="3"/>
       <c r="U74" s="4">
         <f t="shared" si="1"/>
-        <v>43.983333333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>93.983333333</v>
+      </c>
+      <c r="V74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="3">
         <v>40392234</v>
       </c>
@@ -5911,16 +7739,27 @@
       <c r="O75" s="4">
         <v>37.214814815</v>
       </c>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
+      <c r="P75" s="6">
+        <v>64</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>24</v>
+      </c>
+      <c r="R75" s="3">
+        <v>3</v>
+      </c>
+      <c r="S75" s="3">
+        <v>3</v>
+      </c>
       <c r="U75" s="4">
         <f t="shared" si="1"/>
-        <v>37.214814815</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>67.214814815</v>
+      </c>
+      <c r="V75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>37764773</v>
       </c>
@@ -5966,17 +7805,28 @@
       <c r="O76" s="2">
         <v>51.781481482</v>
       </c>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
+      <c r="P76" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>26</v>
+      </c>
+      <c r="R76" s="1">
+        <v>5</v>
+      </c>
+      <c r="S76" s="1">
+        <v>5</v>
+      </c>
       <c r="T76" s="1"/>
       <c r="U76" s="2">
         <f t="shared" si="1"/>
-        <v>51.781481482</v>
-      </c>
-    </row>
-    <row r="77" hidden="1" spans="1:22">
+        <v>101.781481482</v>
+      </c>
+      <c r="V76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>135894390</v>
       </c>
@@ -6043,7 +7893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:22">
       <c r="A78" s="3">
         <v>47835872</v>
       </c>
@@ -6089,17 +7939,28 @@
       <c r="O78" s="4">
         <v>48.562962963</v>
       </c>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
+      <c r="P78" s="6">
+        <v>57</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>16</v>
+      </c>
+      <c r="R78" s="3">
+        <v>4</v>
+      </c>
+      <c r="S78" s="3">
+        <v>5</v>
+      </c>
       <c r="T78" s="3"/>
       <c r="U78" s="4">
         <f t="shared" si="1"/>
-        <v>48.562962963</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>93.562962963</v>
+      </c>
+      <c r="V78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>135667259</v>
       </c>
@@ -6145,17 +8006,28 @@
       <c r="O79" s="2">
         <v>56.937037037</v>
       </c>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
+      <c r="P79" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>17</v>
+      </c>
+      <c r="R79" s="1">
+        <v>3</v>
+      </c>
+      <c r="S79" s="1">
+        <v>3</v>
+      </c>
       <c r="T79" s="1"/>
       <c r="U79" s="2">
         <f t="shared" si="1"/>
-        <v>56.937037037</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>86.937037037</v>
+      </c>
+      <c r="V79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>37265646</v>
       </c>
@@ -6201,17 +8073,28 @@
       <c r="O80" s="2">
         <v>53.144444445</v>
       </c>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
+      <c r="P80" s="5">
+        <v>65</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>49</v>
+      </c>
+      <c r="R80" s="1">
+        <v>5</v>
+      </c>
+      <c r="S80" s="1">
+        <v>5</v>
+      </c>
       <c r="T80" s="1"/>
       <c r="U80" s="2">
         <f t="shared" si="1"/>
-        <v>53.144444445</v>
-      </c>
-    </row>
-    <row r="81" hidden="1" spans="1:22">
+        <v>103.144444445</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>77910974</v>
       </c>
@@ -6278,7 +8161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>91903658</v>
       </c>
@@ -6324,17 +8207,28 @@
       <c r="O82" s="2">
         <v>55.968518519</v>
       </c>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
+      <c r="P82" s="5">
+        <v>27</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>34</v>
+      </c>
+      <c r="R82" s="1">
+        <v>5</v>
+      </c>
+      <c r="S82" s="1">
+        <v>5</v>
+      </c>
       <c r="T82" s="1"/>
       <c r="U82" s="2">
         <f t="shared" si="1"/>
-        <v>55.968518519</v>
-      </c>
-    </row>
-    <row r="83" hidden="1" spans="1:22">
+        <v>105.968518519</v>
+      </c>
+      <c r="V82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>135551451</v>
       </c>
@@ -6401,7 +8295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>135898439</v>
       </c>
@@ -6447,17 +8341,28 @@
       <c r="O84" s="2">
         <v>53.938888889</v>
       </c>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
+      <c r="P84" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>39</v>
+      </c>
+      <c r="R84" s="1">
+        <v>5</v>
+      </c>
+      <c r="S84" s="1">
+        <v>4</v>
+      </c>
       <c r="T84" s="7"/>
       <c r="U84" s="2">
         <f t="shared" si="1"/>
-        <v>53.938888889</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>98.938888889</v>
+      </c>
+      <c r="V84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>135403215</v>
       </c>
@@ -6503,17 +8408,28 @@
       <c r="O85" s="2">
         <v>51.59074074</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
+      <c r="P85" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>13</v>
+      </c>
+      <c r="R85" s="1">
+        <v>5</v>
+      </c>
+      <c r="S85" s="1">
+        <v>5</v>
+      </c>
       <c r="T85" s="1"/>
       <c r="U85" s="2">
         <f t="shared" si="1"/>
-        <v>51.59074074</v>
-      </c>
-    </row>
-    <row r="86" hidden="1" spans="1:22">
+        <v>101.59074074</v>
+      </c>
+      <c r="V85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>135402036</v>
       </c>
@@ -6580,7 +8496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:22">
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>135507625</v>
       </c>
@@ -6647,7 +8563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:22">
+    <row r="88" spans="1:22">
       <c r="A88" s="3">
         <v>61401274</v>
       </c>
@@ -6713,7 +8629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:22">
       <c r="A89" s="3">
         <v>96556392</v>
       </c>
@@ -6759,17 +8675,28 @@
       <c r="O89" s="4">
         <v>48.744444445</v>
       </c>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
+      <c r="P89" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>29</v>
+      </c>
+      <c r="R89" s="3">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
+        <v>5</v>
+      </c>
       <c r="T89" s="3"/>
       <c r="U89" s="4">
         <f t="shared" si="1"/>
-        <v>48.744444445</v>
-      </c>
-    </row>
-    <row r="90" hidden="1" spans="1:22">
+        <v>98.744444445</v>
+      </c>
+      <c r="V89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="3">
         <v>135486870</v>
       </c>
@@ -6836,7 +8763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:22">
+    <row r="91" spans="1:22">
       <c r="A91" s="3">
         <v>135517241</v>
       </c>
@@ -6903,7 +8830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:22">
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>40227731</v>
       </c>
@@ -6970,7 +8897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:22">
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>84724396</v>
       </c>
@@ -7037,7 +8964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:22">
+    <row r="94" spans="1:22">
       <c r="A94" s="3">
         <v>56002756</v>
       </c>
@@ -7104,7 +9031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:22">
+    <row r="95" spans="1:22">
       <c r="A95" s="3">
         <v>135517381</v>
       </c>
@@ -7170,7 +9097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:22">
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>135396655</v>
       </c>
@@ -7237,7 +9164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:22">
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>135474063</v>
       </c>
@@ -7304,7 +9231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:22">
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>133106461</v>
       </c>
@@ -7371,7 +9298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:22">
       <c r="A99" s="3">
         <v>135499461</v>
       </c>
@@ -7417,21 +9344,29 @@
       <c r="O99" s="4">
         <v>37.459259259</v>
       </c>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
+      <c r="P99" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>5</v>
+      </c>
+      <c r="R99" s="3">
+        <v>4</v>
+      </c>
+      <c r="S99" s="3">
+        <v>5</v>
+      </c>
       <c r="T99" s="3"/>
       <c r="U99" s="4">
         <f t="shared" si="1"/>
-        <v>37.459259259</v>
+        <v>82.459259259</v>
+      </c>
+      <c r="V99">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S99">
-    <filterColumn colId="15">
-      <filters blank="1"/>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:U99">
@@ -7439,6 +9374,7 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
